--- a/Plan/Table/Live_Data/12.Box_Table.xlsx
+++ b/Plan/Table/Live_Data/12.Box_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\인디\FluffyDiscatDevelop\Plan\Table\Live_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9515EC3-1D05-423B-A679-1C168CC3FB8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{69ED2A58-383C-4EDA-BF5E-BCFAAEF8A971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{4FF3E35B-F6E3-451E-9BA7-570CB5B454F6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{B52C0C82-6E6A-41E0-BE70-EFDDA6F4954D}"/>
   </bookViews>
   <sheets>
     <sheet name="12.Box_Table" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>id</t>
   </si>
@@ -132,15 +132,6 @@
   </si>
   <si>
     <t>reward_count_10</t>
-  </si>
-  <si>
-    <t>pay_type</t>
-  </si>
-  <si>
-    <t>pay_value</t>
-  </si>
-  <si>
-    <t>pay_count</t>
   </si>
 </sst>
 </file>
@@ -523,17 +514,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0734C162-BB91-43F6-8424-881B7C05FDDE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECBF0C4A-946E-4022-A876-077D40DABA42}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AI1"/>
+  <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AI1048576"/>
+      <selection sqref="A1:AF1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -630,14 +621,103 @@
       <c r="AF1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>34</v>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>11001</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>11002</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>11003</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Plan/Table/Live_Data/12.Box_Table.xlsx
+++ b/Plan/Table/Live_Data/12.Box_Table.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
-  <workbookPr codeName="현재_통합_문서" defaultThemeVersion="202300"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\인디\FluffyDiscatDevelop\Plan\Table\Live_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69ED2A58-383C-4EDA-BF5E-BCFAAEF8A971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D29E2E2F-9D2F-4A66-AA6A-B042E37B86B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{B52C0C82-6E6A-41E0-BE70-EFDDA6F4954D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{95A8776C-F4AF-444F-BCA2-A90447812801}"/>
   </bookViews>
   <sheets>
     <sheet name="12.Box_Table" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>id</t>
   </si>
@@ -50,6 +50,9 @@
     <t>reward_value_1</t>
   </si>
   <si>
+    <t>상자 내용물_1</t>
+  </si>
+  <si>
     <t>reward_count_1</t>
   </si>
   <si>
@@ -59,6 +62,9 @@
     <t>reward_value_2</t>
   </si>
   <si>
+    <t>상자 내용물_2</t>
+  </si>
+  <si>
     <t>reward_count_2</t>
   </si>
   <si>
@@ -68,6 +74,9 @@
     <t>reward_value_3</t>
   </si>
   <si>
+    <t>상자 내용물_3</t>
+  </si>
+  <si>
     <t>reward_count_3</t>
   </si>
   <si>
@@ -77,6 +86,9 @@
     <t>reward_value_4</t>
   </si>
   <si>
+    <t>상자 내용물_4</t>
+  </si>
+  <si>
     <t>reward_count_4</t>
   </si>
   <si>
@@ -122,16 +134,22 @@
     <t>reward_value_9</t>
   </si>
   <si>
-    <t>reward_count_9</t>
-  </si>
-  <si>
-    <t>reward_type_10</t>
-  </si>
-  <si>
-    <t>reward_value_10</t>
-  </si>
-  <si>
-    <t>reward_count_10</t>
+    <t>목검</t>
+  </si>
+  <si>
+    <t>조잡한 검</t>
+  </si>
+  <si>
+    <t>철제 검</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>10 골드</t>
+  </si>
+  <si>
+    <t>ID_1101_가챠 그룹 테이블 참조</t>
   </si>
 </sst>
 </file>
@@ -514,9 +532,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECBF0C4A-946E-4022-A876-077D40DABA42}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D25908DA-C952-4305-8B55-E9BA2D51791D}">
+  <dimension ref="A1:AF3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:AF1048576"/>
@@ -635,44 +652,44 @@
       <c r="D2">
         <v>11001</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2">
         <v>1</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>2</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>11002</v>
       </c>
-      <c r="H2">
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2">
         <v>1</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>11003</v>
       </c>
-      <c r="K2">
+      <c r="M2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2">
         <v>1</v>
       </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
-      <c r="Q2">
-        <v>0</v>
+      <c r="Q2" t="s">
+        <v>35</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -717,6 +734,104 @@
         <v>0</v>
       </c>
       <c r="AF2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1101</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>99</v>
+      </c>
+      <c r="H3">
+        <v>1101</v>
+      </c>
+      <c r="I3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
         <v>0</v>
       </c>
     </row>

--- a/Plan/Table/Live_Data/12.Box_Table.xlsx
+++ b/Plan/Table/Live_Data/12.Box_Table.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr codeName="현재_통합_문서" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\인디\FluffyDiscatDevelop\Plan\Table\Live_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D29E2E2F-9D2F-4A66-AA6A-B042E37B86B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F800A33-611B-41B7-9971-944019EA0126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{95A8776C-F4AF-444F-BCA2-A90447812801}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{84BB016F-7E41-4CF4-AEDB-7EF785203600}"/>
   </bookViews>
   <sheets>
     <sheet name="12.Box_Table" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>id</t>
   </si>
@@ -50,9 +50,6 @@
     <t>reward_value_1</t>
   </si>
   <si>
-    <t>상자 내용물_1</t>
-  </si>
-  <si>
     <t>reward_count_1</t>
   </si>
   <si>
@@ -62,9 +59,6 @@
     <t>reward_value_2</t>
   </si>
   <si>
-    <t>상자 내용물_2</t>
-  </si>
-  <si>
     <t>reward_count_2</t>
   </si>
   <si>
@@ -74,9 +68,6 @@
     <t>reward_value_3</t>
   </si>
   <si>
-    <t>상자 내용물_3</t>
-  </si>
-  <si>
     <t>reward_count_3</t>
   </si>
   <si>
@@ -86,9 +77,6 @@
     <t>reward_value_4</t>
   </si>
   <si>
-    <t>상자 내용물_4</t>
-  </si>
-  <si>
     <t>reward_count_4</t>
   </si>
   <si>
@@ -134,22 +122,16 @@
     <t>reward_value_9</t>
   </si>
   <si>
-    <t>목검</t>
-  </si>
-  <si>
-    <t>조잡한 검</t>
-  </si>
-  <si>
-    <t>철제 검</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>10 골드</t>
-  </si>
-  <si>
-    <t>ID_1101_가챠 그룹 테이블 참조</t>
+    <t>reward_count_9</t>
+  </si>
+  <si>
+    <t>reward_type_10</t>
+  </si>
+  <si>
+    <t>reward_value_10</t>
+  </si>
+  <si>
+    <t>reward_count_10</t>
   </si>
 </sst>
 </file>
@@ -532,7 +514,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D25908DA-C952-4305-8B55-E9BA2D51791D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A95D4B4C-16D6-444B-8688-DFF9E2293977}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AF3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -652,35 +635,35 @@
       <c r="D2">
         <v>11001</v>
       </c>
-      <c r="E2" t="s">
-        <v>32</v>
+      <c r="E2">
+        <v>1</v>
       </c>
       <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>11002</v>
+      </c>
+      <c r="H2">
         <v>1</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>2</v>
       </c>
-      <c r="H2">
-        <v>11002</v>
-      </c>
-      <c r="I2" t="s">
-        <v>33</v>
-      </c>
       <c r="J2">
+        <v>11003</v>
+      </c>
+      <c r="K2">
         <v>1</v>
       </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
       <c r="L2">
-        <v>11003</v>
-      </c>
-      <c r="M2" t="s">
-        <v>34</v>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -688,8 +671,8 @@
       <c r="P2">
         <v>0</v>
       </c>
-      <c r="Q2" t="s">
-        <v>35</v>
+      <c r="Q2">
+        <v>0</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -750,23 +733,23 @@
       <c r="D3">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
-        <v>36</v>
+      <c r="E3">
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G3">
-        <v>99</v>
+        <v>1101</v>
       </c>
       <c r="H3">
-        <v>1101</v>
-      </c>
-      <c r="I3" t="s">
-        <v>37</v>
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -774,8 +757,8 @@
       <c r="L3">
         <v>0</v>
       </c>
-      <c r="M3" t="s">
-        <v>35</v>
+      <c r="M3">
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -786,8 +769,8 @@
       <c r="P3">
         <v>0</v>
       </c>
-      <c r="Q3" t="s">
-        <v>35</v>
+      <c r="Q3">
+        <v>0</v>
       </c>
       <c r="R3">
         <v>0</v>

--- a/Plan/Table/Live_Data/12.Box_Table.xlsx
+++ b/Plan/Table/Live_Data/12.Box_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
-  <workbookPr codeName="현재_통합_문서" defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\인디\FluffyDiscatDevelop\Plan\Table\Live_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F800A33-611B-41B7-9971-944019EA0126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5976FB1A-A517-442C-AB35-50DA3D4F2F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{84BB016F-7E41-4CF4-AEDB-7EF785203600}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{3404F6F5-A1CC-4219-85CB-F75C6FF67AE0}"/>
   </bookViews>
   <sheets>
     <sheet name="12.Box_Table" sheetId="1" r:id="rId1"/>
@@ -514,8 +514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A95D4B4C-16D6-444B-8688-DFF9E2293977}">
-  <sheetPr codeName="Sheet1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAE69396-583D-456C-8B73-C86B515E255B}">
   <dimension ref="A1:AF3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -722,28 +721,28 @@
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1101</v>
+        <v>4001</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
+        <v>99</v>
+      </c>
+      <c r="D3">
+        <v>4001</v>
+      </c>
+      <c r="E3">
         <v>1</v>
       </c>
-      <c r="D3">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
       <c r="F3">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1101</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
